--- a/tendencias.xlsx
+++ b/tendencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\ariel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\investigacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2985686A-31B3-44DF-A45E-44C62113DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5509C30-3A68-4296-8EC2-BCB256FCE483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{BA4FA2E6-4556-4CF3-AC6E-E0F497D2B7F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{BA4FA2E6-4556-4CF3-AC6E-E0F497D2B7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5946,7 +5946,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,7 +6098,7 @@
       <c r="A9" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>411</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6213,7 +6213,7 @@
       <c r="A16" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>585</v>
       </c>
       <c r="C16" s="2"/>
@@ -6276,6 +6276,8 @@
     <hyperlink ref="C12" location="tendencia10!A1" display="tendencia10!A1" xr:uid="{37C0D1EC-48F9-4D85-932F-9B648A1CE3EE}"/>
     <hyperlink ref="C13" location="Tendencia11!A1" display="Tendencia11!A1" xr:uid="{8815AB02-18AF-4CA1-AD1C-38D90A5AA4D8}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{AD1E9992-5791-4CA5-9F89-B279F7B1EF29}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{A4F20429-C019-4C67-A136-295505FD89CA}"/>
+    <hyperlink ref="B9" r:id="rId10" location="most-popular-technologies-webframe" xr:uid="{E647F55D-BD83-40E9-A06D-23B2B033BE78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6978,7 +6980,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
